--- a/InputFiles/CCDI/TC10_CCDI_PHS-Accession-phs003111_StudyShrTitle-MolecCharClonal_LibStrat-WGS.xlsx
+++ b/InputFiles/CCDI/TC10_CCDI_PHS-Accession-phs003111_StudyShrTitle-MolecCharClonal_LibStrat-WGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\MarchBranch\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E88B154-ACD1-4FC4-BD35-FB5C1F7736DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577B6273-C42E-4E43-85E8-DA75F80F7EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>FilesTab</t>
-  </si>
-  <si>
-    <t>TC09_CCDI_PHS-Accession-phs003111_Acro-CCDI_MSK_phs003111_LibSrc-Genomi_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC09_CCDI_PHS-Accession-phs003111_Acro-CCDI_MSK_phs003111_LibSrc-Genomi_WebData.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -1414,6 +1408,12 @@
 Order by sample_id Limit 100</t>
   </si>
   <si>
+    <t>TC10_CCDI_PHS-Accession-phs003111_StudyShrTitle-MolecCharClonal_LibStrat-WGS_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC10_CCDI_PHS-Accession-phs003111_StudyShrTitle-MolecCharClonal_LibStrat-WGS_WebData.xlsx</t>
+  </si>
+  <si>
     <t>Match (st:study)
 where st.phs_accession in ['phs003111']
 with st
@@ -2029,7 +2029,7 @@
 coalesce(sample_id, '') As `Sample ID`,
 guid As `GUID`,
 md5sum As `MD5Sum`
-ORDER BY file_name LIMIT 100000</t>
+ORDER BY file_name LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,16 +2451,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -2468,16 +2468,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -2485,16 +2485,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -2502,16 +2502,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -2522,13 +2522,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
